--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H2">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I2">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J2">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N2">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P2">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q2">
-        <v>0.1816313366544444</v>
+        <v>0.09167614709066668</v>
       </c>
       <c r="R2">
-        <v>1.63468202989</v>
+        <v>0.8250853238160001</v>
       </c>
       <c r="S2">
-        <v>0.05054771265698096</v>
+        <v>0.02951136044351498</v>
       </c>
       <c r="T2">
-        <v>0.05054771265698096</v>
+        <v>0.02951136044351498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H3">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I3">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J3">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P3">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q3">
-        <v>0.4676850182044445</v>
+        <v>0.08412306350933335</v>
       </c>
       <c r="R3">
-        <v>4.209165163840001</v>
+        <v>0.7571075715840001</v>
       </c>
       <c r="S3">
-        <v>0.1301559981312547</v>
+        <v>0.0270799562113075</v>
       </c>
       <c r="T3">
-        <v>0.1301559981312548</v>
+        <v>0.02707995621130749</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H4">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I4">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J4">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>6.029036</v>
       </c>
       <c r="O4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P4">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q4">
-        <v>0.6896346323244442</v>
+        <v>0.1240454060213333</v>
       </c>
       <c r="R4">
-        <v>6.206711690919999</v>
+        <v>1.116408654192</v>
       </c>
       <c r="S4">
-        <v>0.1919242234029209</v>
+        <v>0.039931310429498</v>
       </c>
       <c r="T4">
-        <v>0.1919242234029209</v>
+        <v>0.039931310429498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.675792</v>
       </c>
       <c r="I5">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J5">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N5">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O5">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P5">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q5">
-        <v>0.2956631479448888</v>
+        <v>0.8296619029084444</v>
       </c>
       <c r="R5">
-        <v>2.660968331504</v>
+        <v>7.466957126176</v>
       </c>
       <c r="S5">
-        <v>0.08228258471725008</v>
+        <v>0.2670754851724821</v>
       </c>
       <c r="T5">
-        <v>0.08228258471725007</v>
+        <v>0.2670754851724821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.675792</v>
       </c>
       <c r="I6">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J6">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O6">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P6">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q6">
         <v>0.761307092024889</v>
@@ -818,10 +818,10 @@
         <v>6.851763828224001</v>
       </c>
       <c r="S6">
-        <v>0.211870555159812</v>
+        <v>0.2450714685765634</v>
       </c>
       <c r="T6">
-        <v>0.211870555159812</v>
+        <v>0.2450714685765635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.675792</v>
       </c>
       <c r="I7">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J7">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>6.029036</v>
       </c>
       <c r="O7">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P7">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q7">
         <v>1.122601144056889</v>
@@ -880,10 +880,10 @@
         <v>10.103410296512</v>
       </c>
       <c r="S7">
-        <v>0.3124181162975392</v>
+        <v>0.3613752109782759</v>
       </c>
       <c r="T7">
-        <v>0.3124181162975392</v>
+        <v>0.361375210978276</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.057467</v>
       </c>
       <c r="I8">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J8">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5292956666666666</v>
+        <v>1.485259333333333</v>
       </c>
       <c r="N8">
-        <v>1.587887</v>
+        <v>4.455778</v>
       </c>
       <c r="O8">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="P8">
-        <v>0.1356519681400219</v>
+        <v>0.3057455162066235</v>
       </c>
       <c r="Q8">
-        <v>0.01013901135877777</v>
+        <v>0.02845113270288889</v>
       </c>
       <c r="R8">
-        <v>0.09125110222899999</v>
+        <v>0.256060194326</v>
       </c>
       <c r="S8">
-        <v>0.002821670765790868</v>
+        <v>0.00915867059062642</v>
       </c>
       <c r="T8">
-        <v>0.002821670765790868</v>
+        <v>0.00915867059062642</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.057467</v>
       </c>
       <c r="I9">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J9">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.088672000000001</v>
       </c>
       <c r="O9">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="P9">
-        <v>0.3492921120199358</v>
+        <v>0.2805555239151429</v>
       </c>
       <c r="Q9">
         <v>0.02610707931377778</v>
@@ -1004,10 +1004,10 @@
         <v>0.234963713824</v>
       </c>
       <c r="S9">
-        <v>0.007265558728869046</v>
+        <v>0.008404099127271983</v>
       </c>
       <c r="T9">
-        <v>0.007265558728869047</v>
+        <v>0.008404099127271983</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.057467</v>
       </c>
       <c r="I10">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J10">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>6.029036</v>
       </c>
       <c r="O10">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="P10">
-        <v>0.5150559198400423</v>
+        <v>0.4136989598782336</v>
       </c>
       <c r="Q10">
         <v>0.03849673464577777</v>
@@ -1066,10 +1066,10 @@
         <v>0.346470611812</v>
       </c>
       <c r="S10">
-        <v>0.01071358013958217</v>
+        <v>0.01239243847045969</v>
       </c>
       <c r="T10">
-        <v>0.01071358013958217</v>
+        <v>0.01239243847045969</v>
       </c>
     </row>
   </sheetData>
